--- a/Homework 4 - streamflow and flooding/Homework 4 unit hydrograph.xlsx
+++ b/Homework 4 - streamflow and flooding/Homework 4 unit hydrograph.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\4th year (last year)\ESS 132 - terrestrial hydrology\ESS 132 terrestrial hydrology code\Homework 4 - streamflow and flooding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6546FD-5F07-43C3-8E60-00CAA114B684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Time (hrs)</t>
   </si>
@@ -33,12 +27,15 @@
   <si>
     <t>Unit hydrograph (m3/sec for 1cm of runoff)</t>
   </si>
+  <si>
+    <t>DataframeNum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -104,14 +98,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +176,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,184 +385,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="4" width="23.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>50</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>50</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>250</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>200</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>500</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>450</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>1000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>950</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>190</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>1200</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1150</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>1050</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>700</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>650</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>150</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>100</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>50</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>50</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
